--- a/TurnoverCards/翻卡礼包数值规划.xlsx
+++ b/TurnoverCards/翻卡礼包数值规划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/TurnoverCards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB3D720-EA8A-7E4B-9A5B-E4B4C0E207A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1023F5C-78BD-564C-B647-725DB3E62591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="-21100" windowWidth="33600" windowHeight="18800" xr2:uid="{CEB89FA9-BF40-B240-9A33-BE725A503870}"/>
   </bookViews>
@@ -2430,7 +2430,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>

--- a/TurnoverCards/翻卡礼包数值规划.xlsx
+++ b/TurnoverCards/翻卡礼包数值规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/TurnoverCards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1023F5C-78BD-564C-B647-725DB3E62591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43024062-9679-9A45-A38B-9B2FD63EDFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="-21100" windowWidth="33600" windowHeight="18800" xr2:uid="{CEB89FA9-BF40-B240-9A33-BE725A503870}"/>
+    <workbookView xWindow="-4820" yWindow="-28300" windowWidth="49500" windowHeight="28300" xr2:uid="{CEB89FA9-BF40-B240-9A33-BE725A503870}"/>
   </bookViews>
   <sheets>
     <sheet name="奖励池" sheetId="6" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="269">
   <si>
     <t>奖励库</t>
   </si>
@@ -680,9 +680,6 @@
     <t>160~240</t>
   </si>
   <si>
-    <t>y/2</t>
-  </si>
-  <si>
     <t>奖励倍数</t>
   </si>
   <si>
@@ -692,21 +689,12 @@
     <t>x= ? y</t>
   </si>
   <si>
-    <t>则 x / y = 5 / 2 = 2.08 约定于 2</t>
-  </si>
-  <si>
-    <t>可设定在标准消费下2次低档应出1次中档</t>
-  </si>
-  <si>
     <t>2次低档消费数据</t>
   </si>
   <si>
     <t xml:space="preserve">x /y = </t>
   </si>
   <si>
-    <t>(x * 1.5+ 2.64* y + 6.42* y/2 ) / (x + y + y/2)  = 2.5</t>
-  </si>
-  <si>
     <t>高付费</t>
   </si>
   <si>
@@ -858,13 +846,49 @@
   </si>
   <si>
     <t>蝙蝠杆</t>
+  </si>
+  <si>
+    <t>因为第二次小火会直接晋升到大火</t>
+  </si>
+  <si>
+    <t>所以 y=z</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>(x * 1.5+ 2.64* y + 6.42* z ) / (x + y + z)  = 2.5</t>
+  </si>
+  <si>
+    <t>则 x / y = 5 / 2 = 4.06  约等于4</t>
+  </si>
+  <si>
+    <t>可设定在标准消费下 低档：中档： 高档 = 4:1:1</t>
+  </si>
+  <si>
+    <t>按照此比例推出节奏应为 2次无火的刷新后下一次就为小火</t>
+  </si>
+  <si>
+    <t>初步计算结果</t>
+  </si>
+  <si>
+    <t>再通过模拟器调参使得无火次数/小火次数 = 4 即可满足目标</t>
+  </si>
+  <si>
+    <t>最终参数：</t>
+  </si>
+  <si>
+    <t>再调整翻卡消耗的钻石数</t>
+  </si>
+  <si>
+    <t>再调整刷新消耗的钻石数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -902,8 +926,14 @@
       <name val="苹方-简"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="苹方-简"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1009,6 +1039,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1197,30 +1239,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1257,6 +1275,34 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2429,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDBE71F-855B-604A-8097-E2A8CAFA74DE}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2442,48 +2488,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="58" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="60"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>2</v>
@@ -2492,16 +2538,16 @@
         <v>65</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>2</v>
@@ -2510,16 +2556,16 @@
         <v>65</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N2" s="37" t="s">
         <v>110</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P2" s="37" t="s">
         <v>2</v>
@@ -2528,16 +2574,16 @@
         <v>65</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="T2" s="39" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="V2" s="39" t="s">
         <v>2</v>
@@ -2546,7 +2592,7 @@
         <v>65</v>
       </c>
       <c r="X2" s="38" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -2563,7 +2609,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -2590,7 +2636,7 @@
         <v>43</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O3" s="9">
         <v>10</v>
@@ -2608,7 +2654,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="38" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="U3" s="38">
         <v>4</v>
@@ -2637,7 +2683,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
@@ -2664,7 +2710,7 @@
         <v>42</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O4" s="9">
         <v>100</v>
@@ -2682,7 +2728,7 @@
         <v>42</v>
       </c>
       <c r="T4" s="38" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="U4" s="38">
         <v>40</v>
@@ -2702,7 +2748,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2711,7 +2757,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -2738,7 +2784,7 @@
         <v>41</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O5" s="9">
         <v>400</v>
@@ -2756,7 +2802,7 @@
         <v>41</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="U5" s="38">
         <v>160</v>
@@ -2785,7 +2831,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
@@ -2859,7 +2905,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
@@ -2933,7 +2979,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
@@ -3007,7 +3053,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
@@ -3081,7 +3127,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -3155,7 +3201,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
@@ -3220,7 +3266,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -3229,7 +3275,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="1">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -4995,18 +5041,18 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
     </row>
     <row r="7" spans="1:23">
       <c r="P7" s="10" t="s">
@@ -5023,26 +5069,26 @@
       <c r="Q8" s="10"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="5" t="s">
@@ -5589,18 +5635,18 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -5609,7 +5655,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -5625,7 +5671,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -5647,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1143F6-A7C5-2A47-868E-77190750C444}">
   <dimension ref="A2:V139"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="101" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A79" zoomScale="137" workbookViewId="0">
+      <selection activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -5994,7 +6040,7 @@
         <v>190</v>
       </c>
       <c r="S24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -6005,7 +6051,7 @@
         <v>290</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -6048,10 +6094,10 @@
         <v>590</v>
       </c>
       <c r="H28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s">
         <v>122</v>
@@ -6059,6 +6105,11 @@
       <c r="M28" t="s">
         <v>125</v>
       </c>
+      <c r="N28" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="O28" s="62"/>
+      <c r="P28" s="61"/>
       <c r="Q28" s="12" t="s">
         <v>87</v>
       </c>
@@ -6078,18 +6129,23 @@
         <v>690</v>
       </c>
       <c r="H29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <f>(1.5*H29-($N$15 + $N$18/2))/($N$12-H29)</f>
-        <v>329.05207949944918</v>
+        <f>(5-2.64-6.42)/(1.5-H29)</f>
+        <v>8.120000000000001</v>
       </c>
       <c r="L29" t="s">
         <v>123</v>
       </c>
       <c r="M29" t="s">
-        <v>201</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="N29" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="O29" s="62"/>
+      <c r="P29" s="61"/>
       <c r="Q29" s="12" t="s">
         <v>92</v>
       </c>
@@ -6108,12 +6164,12 @@
       <c r="B30">
         <v>790</v>
       </c>
-      <c r="H30">
-        <v>1.75</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ref="I30:I36" si="2">(1.5*H30-($N$15 + $N$18/2))/($N$12-H30)</f>
-        <v>12.404676384298</v>
+      <c r="H30" s="63">
+        <v>2.5</v>
+      </c>
+      <c r="I30" s="63">
+        <f t="shared" ref="I30:I36" si="2">(5-2.64-6.42)/(1.5-H30)</f>
+        <v>4.0600000000000005</v>
       </c>
       <c r="Q30" s="12" t="s">
         <v>88</v>
@@ -6134,14 +6190,14 @@
         <v>890</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>5.6017048329959502</v>
+        <v>2.706666666666667</v>
       </c>
       <c r="L31" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>89</v>
@@ -6162,23 +6218,23 @@
         <v>990</v>
       </c>
       <c r="H32">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>3.2686201632707235</v>
+        <v>2.0300000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="H33" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="2"/>
-        <v>2.0894105375063443</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="L33" t="s">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="Q33" s="25" t="s">
         <v>86</v>
@@ -6198,32 +6254,35 @@
         <v>90,190,290,390,490,590,690,790,890,990</v>
       </c>
       <c r="H34">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>1.3777782940197281</v>
+        <v>1.3533333333333335</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="H35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>0.901633338503254</v>
+        <v>1.1600000000000001</v>
       </c>
       <c r="L35" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:22">
       <c r="H36">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>0.30450266724264341</v>
+        <v>1.0150000000000001</v>
+      </c>
+      <c r="L36" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -6265,13 +6324,13 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -6282,16 +6341,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K41" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L41" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M41" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -6302,16 +6361,16 @@
         <v>0.08</v>
       </c>
       <c r="K42" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L42" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M42" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N42" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -6322,7 +6381,7 @@
         <v>0.09</v>
       </c>
       <c r="L43" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -6333,13 +6392,13 @@
         <v>0.1</v>
       </c>
       <c r="L44" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M44" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N44" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -6350,7 +6409,7 @@
         <v>0.11</v>
       </c>
       <c r="L45" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -6379,6 +6438,9 @@
       <c r="B48" s="13">
         <v>0.14000000000000001</v>
       </c>
+      <c r="N48" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49">
@@ -6403,16 +6465,16 @@
       <c r="B51" s="13">
         <v>0.17</v>
       </c>
-      <c r="D51" s="44" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
+      <c r="D51" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
       <c r="L51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -6426,22 +6488,22 @@
         <v>0.18</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E52" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F52" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G52" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I52" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -6452,7 +6514,7 @@
         <v>0.19</v>
       </c>
       <c r="L53" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N53" t="s">
         <v>130</v>
@@ -6623,7 +6685,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="L63" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -6634,7 +6696,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>26</v>
       </c>
@@ -6642,7 +6704,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>27</v>
       </c>
@@ -6650,15 +6712,18 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>28</v>
       </c>
       <c r="B67" s="13">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="L67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>29</v>
       </c>
@@ -6666,55 +6731,91 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>30</v>
       </c>
       <c r="B69" s="13">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="L69" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>31</v>
       </c>
       <c r="B70" s="13">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="L70" t="s">
+        <v>204</v>
+      </c>
+      <c r="N70" t="s">
+        <v>130</v>
+      </c>
+      <c r="O70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>32</v>
       </c>
       <c r="B71" s="13">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="L71" t="s">
+        <v>128</v>
+      </c>
+      <c r="O71">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>33</v>
       </c>
       <c r="B72" s="13">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="L72" t="s">
+        <v>93</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>34</v>
       </c>
       <c r="B73" s="13">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="L73" t="s">
+        <v>126</v>
+      </c>
+      <c r="O73">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>35</v>
       </c>
       <c r="B74" s="13">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="L74" t="s">
+        <v>127</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>36</v>
       </c>
@@ -6722,15 +6823,18 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>37</v>
       </c>
       <c r="B76" s="13">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="L76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>38</v>
       </c>
@@ -6738,15 +6842,21 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>39</v>
       </c>
       <c r="B78" s="13">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="L78" t="s">
+        <v>129</v>
+      </c>
+      <c r="O78">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="23">
         <v>40</v>
       </c>
@@ -6754,7 +6864,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>41</v>
       </c>
@@ -6762,95 +6872,199 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>42</v>
       </c>
       <c r="B81" s="13">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="L81" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="M81" s="64"/>
+      <c r="N81" s="64"/>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>43</v>
       </c>
       <c r="B82" s="13">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="L82" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="M82" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="N82" s="64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>44</v>
       </c>
       <c r="B83" s="13">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="L83" s="64">
+        <v>1</v>
+      </c>
+      <c r="M83" s="64">
+        <v>60</v>
+      </c>
+      <c r="N83" s="64">
+        <f>SUM($B$3:M83)</f>
+        <v>67575.719000000012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>45</v>
       </c>
       <c r="B84" s="13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="L84" s="64">
+        <v>2</v>
+      </c>
+      <c r="M84" s="64">
+        <v>100</v>
+      </c>
+      <c r="N84" s="64">
+        <f>SUM($B$3:M84)</f>
+        <v>67678.219000000012</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>46</v>
       </c>
       <c r="B85" s="13">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="L85" s="64">
+        <v>3</v>
+      </c>
+      <c r="M85" s="64">
+        <v>160</v>
+      </c>
+      <c r="N85" s="64">
+        <f>SUM($B$3:M85)</f>
+        <v>67841.729000000007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>47</v>
       </c>
       <c r="B86" s="13">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="L86" s="64">
+        <v>4</v>
+      </c>
+      <c r="M86" s="64">
+        <v>260</v>
+      </c>
+      <c r="N86" s="64">
+        <f>SUM($B$3:M86)</f>
+        <v>68106.249000000011</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>48</v>
       </c>
       <c r="B87" s="13">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="L87" s="64">
+        <v>5</v>
+      </c>
+      <c r="M87" s="64">
+        <v>360</v>
+      </c>
+      <c r="N87" s="64">
+        <f>SUM($B$3:M87)</f>
+        <v>68471.77900000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>49</v>
       </c>
       <c r="B88" s="13">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="L88" s="64">
+        <v>6</v>
+      </c>
+      <c r="M88" s="64">
+        <v>460</v>
+      </c>
+      <c r="N88" s="64">
+        <f>SUM($B$3:M88)</f>
+        <v>68938.319000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>50</v>
       </c>
       <c r="B89" s="13">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="L89" s="64">
+        <v>7</v>
+      </c>
+      <c r="M89" s="64">
+        <v>560</v>
+      </c>
+      <c r="N89" s="64">
+        <f>SUM($B$3:M89)</f>
+        <v>69505.869000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>51</v>
       </c>
       <c r="B90" s="13">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="L90" s="64">
+        <v>8</v>
+      </c>
+      <c r="M90" s="64">
+        <v>660</v>
+      </c>
+      <c r="N90" s="64">
+        <f>SUM($B$3:M90)</f>
+        <v>70174.429000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>52</v>
       </c>
       <c r="B91" s="13">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="L91" s="64">
+        <v>9</v>
+      </c>
+      <c r="M91" s="64">
+        <v>760</v>
+      </c>
+      <c r="N91" s="64">
+        <f>SUM($B$3:M91)</f>
+        <v>70943.999000000011</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>53</v>
       </c>
@@ -6858,15 +7072,19 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>54</v>
       </c>
       <c r="B93" s="13">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="M93" t="str">
+        <f>_xlfn.TEXTJOIN(",",FALSE,M83:M91)</f>
+        <v>60,100,160,260,360,460,560,660,760</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>55</v>
       </c>
@@ -6874,95 +7092,170 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>56</v>
       </c>
       <c r="B95" s="13">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="L95" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="M95" s="64"/>
+      <c r="N95" s="64"/>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>57</v>
       </c>
       <c r="B96" s="13">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="L96" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="M96" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="N96" s="64"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>58</v>
       </c>
       <c r="B97" s="13">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="L97" s="64">
+        <v>1</v>
+      </c>
+      <c r="M97" s="64">
+        <v>60</v>
+      </c>
+      <c r="N97" s="64"/>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>59</v>
       </c>
       <c r="B98" s="13">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="L98" s="64">
+        <v>2</v>
+      </c>
+      <c r="M98" s="64">
+        <v>100</v>
+      </c>
+      <c r="N98" s="64"/>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>60</v>
       </c>
       <c r="B99" s="13">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="L99" s="64">
+        <v>3</v>
+      </c>
+      <c r="M99" s="64">
+        <v>160</v>
+      </c>
+      <c r="N99" s="64"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>61</v>
       </c>
       <c r="B100" s="13">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="L100" s="64">
+        <v>4</v>
+      </c>
+      <c r="M100" s="64">
+        <v>260</v>
+      </c>
+      <c r="N100" s="64"/>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>62</v>
       </c>
       <c r="B101" s="13">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="L101" s="64">
+        <v>5</v>
+      </c>
+      <c r="M101" s="64">
+        <v>360</v>
+      </c>
+      <c r="N101" s="64"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>63</v>
       </c>
       <c r="B102" s="13">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="L102" s="64">
+        <v>6</v>
+      </c>
+      <c r="M102" s="64">
+        <v>460</v>
+      </c>
+      <c r="N102" s="64"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>64</v>
       </c>
       <c r="B103" s="13">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="L103" s="64">
+        <v>7</v>
+      </c>
+      <c r="M103" s="64">
+        <v>560</v>
+      </c>
+      <c r="N103" s="64"/>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>65</v>
       </c>
       <c r="B104" s="13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="L104" s="64">
+        <v>8</v>
+      </c>
+      <c r="M104" s="64">
+        <v>660</v>
+      </c>
+      <c r="N104" s="64"/>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>66</v>
       </c>
       <c r="B105" s="13">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="L105" s="64">
+        <v>9</v>
+      </c>
+      <c r="M105" s="64">
+        <v>760</v>
+      </c>
+      <c r="N105" s="64"/>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>67</v>
       </c>
@@ -6970,7 +7263,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>68</v>
       </c>
@@ -6978,7 +7271,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>69</v>
       </c>
@@ -6986,7 +7279,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>70</v>
       </c>
@@ -6994,7 +7287,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>71</v>
       </c>
@@ -7002,7 +7295,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>72</v>
       </c>
@@ -7010,7 +7303,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>73</v>
       </c>
@@ -7244,7 +7537,7 @@
         <v>134</v>
       </c>
       <c r="M1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7252,7 +7545,7 @@
         <v>135</v>
       </c>
       <c r="M3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N3" t="s">
         <v>56</v>
@@ -7261,13 +7554,13 @@
     <row r="4" spans="1:16">
       <c r="A4" s="12"/>
       <c r="M4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7278,13 +7571,13 @@
         <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="N5" t="s">
         <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7305,7 +7598,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="M9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7313,13 +7606,13 @@
         <v>136</v>
       </c>
       <c r="M10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N10" t="s">
+        <v>214</v>
+      </c>
+      <c r="P10" t="s">
         <v>218</v>
-      </c>
-      <c r="P10" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7330,13 +7623,13 @@
         <v>3</v>
       </c>
       <c r="M11" t="s">
+        <v>215</v>
+      </c>
+      <c r="N11" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" t="s">
         <v>219</v>
-      </c>
-      <c r="N11" t="s">
-        <v>220</v>
-      </c>
-      <c r="P11" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7347,13 +7640,13 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N12" t="s">
+        <v>216</v>
+      </c>
+      <c r="P12" t="s">
         <v>220</v>
-      </c>
-      <c r="P12" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7485,11 +7778,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
@@ -7642,11 +7935,11 @@
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="48"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="60"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">

--- a/TurnoverCards/翻卡礼包数值规划.xlsx
+++ b/TurnoverCards/翻卡礼包数值规划.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/TurnoverCards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43024062-9679-9A45-A38B-9B2FD63EDFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD996826-BF87-604A-A5B0-26ADB6C8D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4820" yWindow="-28300" windowWidth="49500" windowHeight="28300" xr2:uid="{CEB89FA9-BF40-B240-9A33-BE725A503870}"/>
+    <workbookView xWindow="-2200" yWindow="-21100" windowWidth="38100" windowHeight="21100" activeTab="1" xr2:uid="{CEB89FA9-BF40-B240-9A33-BE725A503870}"/>
   </bookViews>
   <sheets>
-    <sheet name="奖励池" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="基础奖池" sheetId="6" r:id="rId1"/>
+    <sheet name="初始思路" sheetId="1" r:id="rId2"/>
     <sheet name="宏观分配" sheetId="3" r:id="rId3"/>
     <sheet name="限制条件的确定" sheetId="7" r:id="rId4"/>
     <sheet name="游戏定价" sheetId="5" r:id="rId5"/>
     <sheet name="其他" sheetId="8" r:id="rId6"/>
+    <sheet name="奖励分配" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="290">
   <si>
     <t>奖励库</t>
   </si>
@@ -623,9 +624,6 @@
     <t>Rocket</t>
   </si>
   <si>
-    <t>主题特殊球</t>
-  </si>
-  <si>
     <t>袋鼠球</t>
   </si>
   <si>
@@ -791,18 +789,12 @@
     <t>p1</t>
   </si>
   <si>
-    <t>1-2p1</t>
-  </si>
-  <si>
     <t>第三次</t>
   </si>
   <si>
     <t>p2</t>
   </si>
   <si>
-    <t>1-2p2</t>
-  </si>
-  <si>
     <t>p0 +（1-p0)*p1+(1-p0)*(1-p1)*p2=1</t>
   </si>
   <si>
@@ -882,6 +874,78 @@
   </si>
   <si>
     <t>再调整刷新消耗的钻石数</t>
+  </si>
+  <si>
+    <t>1-p1</t>
+  </si>
+  <si>
+    <t>1-p2</t>
+  </si>
+  <si>
+    <t>对于高Stage玩家</t>
+  </si>
+  <si>
+    <t>传奇卡池</t>
+  </si>
+  <si>
+    <t>最小间隔</t>
+  </si>
+  <si>
+    <t>最大间隔</t>
+  </si>
+  <si>
+    <t>前x论出现y次</t>
+  </si>
+  <si>
+    <t>模拟好卡比率</t>
+  </si>
+  <si>
+    <t>金币奖励系数</t>
+  </si>
+  <si>
+    <t>其他卡</t>
+  </si>
+  <si>
+    <t>对于中Stage玩家</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S2~S7</t>
+  </si>
+  <si>
+    <t>Black_bear</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Lava</t>
+  </si>
+  <si>
+    <t>Tyrannosaurus</t>
+  </si>
+  <si>
+    <t>Wooden_wheel</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Sky_wheel</t>
+  </si>
+  <si>
+    <t>Cyborg</t>
+  </si>
+  <si>
+    <t>S11以上</t>
+  </si>
+  <si>
+    <t>S8~S10</t>
   </si>
 </sst>
 </file>
@@ -1239,6 +1303,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,10 +1367,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2475,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDBE71F-855B-604A-8097-E2A8CAFA74DE}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="131" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2488,48 +2552,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="50" t="s">
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>2</v>
@@ -2538,16 +2602,16 @@
         <v>65</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>2</v>
@@ -2556,16 +2620,16 @@
         <v>65</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N2" s="37" t="s">
         <v>110</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P2" s="37" t="s">
         <v>2</v>
@@ -2574,16 +2638,16 @@
         <v>65</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="T2" s="39" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="V2" s="39" t="s">
         <v>2</v>
@@ -2592,7 +2656,7 @@
         <v>65</v>
       </c>
       <c r="X2" s="38" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -2606,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
         <v>2400</v>
@@ -2636,7 +2700,7 @@
         <v>43</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O3" s="9">
         <v>10</v>
@@ -2654,7 +2718,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="U3" s="38">
         <v>4</v>
@@ -2680,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>2400</v>
@@ -2710,7 +2774,7 @@
         <v>42</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O4" s="9">
         <v>100</v>
@@ -2728,7 +2792,7 @@
         <v>42</v>
       </c>
       <c r="T4" s="38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="U4" s="38">
         <v>40</v>
@@ -2748,7 +2812,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2784,7 +2848,7 @@
         <v>41</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O5" s="9">
         <v>400</v>
@@ -2802,7 +2866,7 @@
         <v>41</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="U5" s="38">
         <v>160</v>
@@ -2855,34 +2919,34 @@
         <v>3</v>
       </c>
       <c r="M6" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="O6" s="9">
-        <v>7</v>
+        <v>6000</v>
       </c>
       <c r="P6" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="9">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="R6" s="9">
         <v>2</v>
       </c>
       <c r="S6" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" s="38" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="U6" s="38">
-        <v>3</v>
+        <v>2500</v>
       </c>
       <c r="V6" s="38">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="W6" s="38">
         <v>300</v>
@@ -2929,37 +2993,37 @@
         <v>3</v>
       </c>
       <c r="M7" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="O7" s="9">
-        <v>6</v>
+        <v>5500</v>
       </c>
       <c r="P7" s="9">
         <v>80</v>
       </c>
       <c r="Q7" s="9">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="R7" s="9">
         <v>2</v>
       </c>
       <c r="S7" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="U7" s="38">
-        <v>2</v>
+        <v>2250</v>
       </c>
       <c r="V7" s="38">
         <v>80</v>
       </c>
       <c r="W7" s="38">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="X7" s="38">
         <v>1</v>
@@ -3003,37 +3067,37 @@
         <v>3</v>
       </c>
       <c r="M8" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="O8" s="9">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="P8" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="9">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="R8" s="9">
         <v>2</v>
       </c>
       <c r="S8" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T8" s="38" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="U8" s="38">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="V8" s="38">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="W8" s="38">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="X8" s="38">
         <v>1</v>
@@ -3077,37 +3141,37 @@
         <v>3</v>
       </c>
       <c r="M9" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="O9" s="9">
-        <v>14</v>
+        <v>4500</v>
       </c>
       <c r="P9" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="9">
-        <v>700</v>
+        <v>540</v>
       </c>
       <c r="R9" s="9">
         <v>2</v>
       </c>
       <c r="S9" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T9" s="38" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="U9" s="38">
-        <v>8</v>
+        <v>1750</v>
       </c>
       <c r="V9" s="38">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="W9" s="38">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="X9" s="38">
         <v>1</v>
@@ -3151,37 +3215,37 @@
         <v>3</v>
       </c>
       <c r="M10" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="O10" s="9">
-        <v>13</v>
+        <v>4000</v>
       </c>
       <c r="P10" s="9">
         <v>40</v>
       </c>
       <c r="Q10" s="9">
-        <v>650</v>
+        <v>480</v>
       </c>
       <c r="R10" s="9">
         <v>2</v>
       </c>
       <c r="S10" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T10" s="38" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="U10" s="38">
-        <v>7</v>
+        <v>1500</v>
       </c>
       <c r="V10" s="38">
         <v>40</v>
       </c>
       <c r="W10" s="38">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="X10" s="38">
         <v>1</v>
@@ -3225,37 +3289,37 @@
         <v>3</v>
       </c>
       <c r="M11" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="O11" s="9">
-        <v>12</v>
+        <v>3500</v>
       </c>
       <c r="P11" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="R11" s="9">
         <v>2</v>
       </c>
       <c r="S11" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T11" s="38" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="U11" s="38">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="V11" s="38">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="W11" s="38">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="X11" s="38">
         <v>1</v>
@@ -3266,13 +3330,13 @@
         <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
         <v>2400</v>
@@ -3302,16 +3366,16 @@
         <v>5</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O12" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P12" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="9">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="R12" s="9">
         <v>2</v>
@@ -3320,16 +3384,16 @@
         <v>5</v>
       </c>
       <c r="T12" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U12" s="38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V12" s="38">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W12" s="38">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="X12" s="38">
         <v>1</v>
@@ -3364,16 +3428,16 @@
         <v>5</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O13" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P13" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="9">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="R13" s="9">
         <v>2</v>
@@ -3382,16 +3446,16 @@
         <v>5</v>
       </c>
       <c r="T13" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U13" s="38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V13" s="38">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="W13" s="38">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="X13" s="38">
         <v>1</v>
@@ -3426,16 +3490,16 @@
         <v>5</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O14" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P14" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="9">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R14" s="9">
         <v>2</v>
@@ -3444,16 +3508,16 @@
         <v>5</v>
       </c>
       <c r="T14" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U14" s="38">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V14" s="38">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="W14" s="38">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X14" s="38">
         <v>1</v>
@@ -3470,7 +3534,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I15" s="35">
         <v>16</v>
@@ -3488,16 +3552,16 @@
         <v>5</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O15" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P15" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="9">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="R15" s="9">
         <v>2</v>
@@ -3506,16 +3570,16 @@
         <v>5</v>
       </c>
       <c r="T15" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U15" s="38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V15" s="38">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="W15" s="38">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="X15" s="38">
         <v>1</v>
@@ -3535,13 +3599,13 @@
         <v>5</v>
       </c>
       <c r="I16" s="35">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="J16" s="35">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K16" s="35">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L16" s="35">
         <v>3</v>
@@ -3550,16 +3614,16 @@
         <v>5</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O16" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P16" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="9">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R16" s="9">
         <v>2</v>
@@ -3568,16 +3632,16 @@
         <v>5</v>
       </c>
       <c r="T16" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U16" s="38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V16" s="38">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="W16" s="38">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X16" s="38">
         <v>1</v>
@@ -3597,13 +3661,13 @@
         <v>5</v>
       </c>
       <c r="I17" s="35">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="J17" s="35">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K17" s="35">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="L17" s="35">
         <v>3</v>
@@ -3612,16 +3676,16 @@
         <v>5</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O17" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P17" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="9">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="R17" s="9">
         <v>2</v>
@@ -3630,16 +3694,16 @@
         <v>5</v>
       </c>
       <c r="T17" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U17" s="38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V17" s="38">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="W17" s="38">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="X17" s="38">
         <v>1</v>
@@ -3659,13 +3723,13 @@
         <v>5</v>
       </c>
       <c r="I18" s="35">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="J18" s="35">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K18" s="35">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="L18" s="35">
         <v>3</v>
@@ -3674,16 +3738,16 @@
         <v>5</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O18" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P18" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="9">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="R18" s="9">
         <v>2</v>
@@ -3692,16 +3756,16 @@
         <v>5</v>
       </c>
       <c r="T18" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U18" s="38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V18" s="38">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="W18" s="38">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="X18" s="38">
         <v>1</v>
@@ -3721,46 +3785,46 @@
         <v>5</v>
       </c>
       <c r="I19" s="35">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="J19" s="35">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K19" s="35">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="L19" s="35">
         <v>3</v>
       </c>
       <c r="M19" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="O19" s="9">
-        <v>12000</v>
+        <v>12</v>
       </c>
       <c r="P19" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="9">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="R19" s="9">
         <v>2</v>
       </c>
       <c r="S19" s="38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T19" s="38" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="U19" s="38">
-        <v>5000</v>
+        <v>6</v>
       </c>
       <c r="V19" s="38">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="W19" s="38">
         <v>300</v>
@@ -3783,49 +3847,49 @@
         <v>5</v>
       </c>
       <c r="I20" s="35">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="J20" s="35">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K20" s="35">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L20" s="35">
         <v>3</v>
       </c>
       <c r="M20" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="O20" s="9">
-        <v>11000</v>
+        <v>11</v>
       </c>
       <c r="P20" s="9">
         <v>80</v>
       </c>
       <c r="Q20" s="9">
-        <v>660</v>
+        <v>550</v>
       </c>
       <c r="R20" s="9">
         <v>2</v>
       </c>
       <c r="S20" s="38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T20" s="38" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="U20" s="38">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="V20" s="38">
         <v>80</v>
       </c>
       <c r="W20" s="38">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="X20" s="38">
         <v>1</v>
@@ -3845,49 +3909,49 @@
         <v>5</v>
       </c>
       <c r="I21" s="35">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="J21" s="35">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="K21" s="35">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L21" s="35">
         <v>3</v>
       </c>
       <c r="M21" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="O21" s="9">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="P21" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="9">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R21" s="9">
         <v>2</v>
       </c>
       <c r="S21" s="38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T21" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="U21" s="38">
         <v>4</v>
       </c>
-      <c r="U21" s="38">
-        <v>4000</v>
-      </c>
       <c r="V21" s="38">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="W21" s="38">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="X21" s="38">
         <v>1</v>
@@ -3907,49 +3971,49 @@
         <v>5</v>
       </c>
       <c r="I22" s="35">
+        <v>550</v>
+      </c>
+      <c r="J22" s="35">
+        <v>120</v>
+      </c>
+      <c r="K22" s="35">
+        <v>550</v>
+      </c>
+      <c r="L22" s="35">
+        <v>3</v>
+      </c>
+      <c r="M22" s="9">
+        <v>5</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22" s="9">
+        <v>9</v>
+      </c>
+      <c r="P22" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="9">
         <v>700</v>
-      </c>
-      <c r="J22" s="35">
-        <v>60</v>
-      </c>
-      <c r="K22" s="35">
-        <v>700</v>
-      </c>
-      <c r="L22" s="35">
-        <v>3</v>
-      </c>
-      <c r="M22" s="9">
-        <v>3</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="9">
-        <v>9000</v>
-      </c>
-      <c r="P22" s="9">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>540</v>
       </c>
       <c r="R22" s="9">
         <v>2</v>
       </c>
       <c r="S22" s="38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T22" s="38" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="U22" s="38">
-        <v>3500</v>
+        <v>8</v>
       </c>
       <c r="V22" s="38">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="W22" s="38">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="X22" s="38">
         <v>1</v>
@@ -3969,49 +4033,49 @@
         <v>5</v>
       </c>
       <c r="I23" s="35">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="J23" s="35">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K23" s="35">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="L23" s="35">
         <v>3</v>
       </c>
       <c r="M23" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="O23" s="9">
-        <v>8000</v>
+        <v>8</v>
       </c>
       <c r="P23" s="9">
         <v>40</v>
       </c>
       <c r="Q23" s="9">
-        <v>480</v>
+        <v>650</v>
       </c>
       <c r="R23" s="9">
         <v>2</v>
       </c>
       <c r="S23" s="38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T23" s="38" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="U23" s="38">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="V23" s="38">
         <v>40</v>
       </c>
       <c r="W23" s="38">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="X23" s="38">
         <v>1</v>
@@ -4025,55 +4089,55 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="35">
-        <v>600</v>
+        <v>8000</v>
       </c>
       <c r="J24" s="35">
         <v>100</v>
       </c>
       <c r="K24" s="35">
+        <v>900</v>
+      </c>
+      <c r="L24" s="35">
+        <v>3</v>
+      </c>
+      <c r="M24" s="9">
+        <v>5</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O24" s="9">
+        <v>7</v>
+      </c>
+      <c r="P24" s="9">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="9">
         <v>600</v>
-      </c>
-      <c r="L24" s="35">
-        <v>3</v>
-      </c>
-      <c r="M24" s="9">
-        <v>3</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="9">
-        <v>7000</v>
-      </c>
-      <c r="P24" s="9">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>420</v>
       </c>
       <c r="R24" s="9">
         <v>2</v>
       </c>
       <c r="S24" s="38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T24" s="38" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="U24" s="38">
-        <v>2500</v>
+        <v>6</v>
       </c>
       <c r="V24" s="38">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="W24" s="38">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="X24" s="38">
         <v>1</v>
@@ -4087,35 +4151,59 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="35">
+        <v>3</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="35">
+        <v>9000</v>
+      </c>
+      <c r="J25" s="35">
+        <v>80</v>
+      </c>
+      <c r="K25" s="35">
+        <v>960</v>
+      </c>
+      <c r="L25" s="35">
+        <v>3</v>
+      </c>
+      <c r="M25" s="9">
+        <v>5</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O25" s="9">
+        <v>6</v>
+      </c>
+      <c r="P25" s="9">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>550</v>
+      </c>
+      <c r="R25" s="9">
         <v>2</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="S25" s="38">
         <v>5</v>
       </c>
-      <c r="I25" s="35">
-        <v>550</v>
-      </c>
-      <c r="J25" s="35">
-        <v>120</v>
-      </c>
-      <c r="K25" s="35">
-        <v>550</v>
-      </c>
-      <c r="L25" s="35">
-        <v>3</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
+      <c r="T25" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="U25" s="38">
+        <v>5</v>
+      </c>
+      <c r="V25" s="38">
+        <v>80</v>
+      </c>
+      <c r="W25" s="38">
+        <v>250</v>
+      </c>
+      <c r="X25" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="1"/>
@@ -4125,35 +4213,59 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="35">
+        <v>3</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="35">
+        <v>10000</v>
+      </c>
+      <c r="J26" s="35">
+        <v>60</v>
+      </c>
+      <c r="K26" s="35">
+        <v>1020</v>
+      </c>
+      <c r="L26" s="35">
+        <v>3</v>
+      </c>
+      <c r="M26" s="9">
+        <v>5</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O26" s="9">
+        <v>5</v>
+      </c>
+      <c r="P26" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>500</v>
+      </c>
+      <c r="R26" s="9">
         <v>2</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="S26" s="38">
         <v>5</v>
       </c>
-      <c r="I26" s="35">
-        <v>500</v>
-      </c>
-      <c r="J26" s="35">
-        <v>140</v>
-      </c>
-      <c r="K26" s="35">
-        <v>500</v>
-      </c>
-      <c r="L26" s="35">
-        <v>3</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
+      <c r="T26" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="U26" s="38">
+        <v>4</v>
+      </c>
+      <c r="V26" s="38">
+        <v>100</v>
+      </c>
+      <c r="W26" s="38">
+        <v>200</v>
+      </c>
+      <c r="X26" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="1"/>
@@ -4169,29 +4281,17 @@
         <v>4</v>
       </c>
       <c r="I27" s="35">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="J27" s="35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K27" s="35">
-        <v>900</v>
+        <v>1080</v>
       </c>
       <c r="L27" s="35">
         <v>3</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="1"/>
@@ -4207,29 +4307,17 @@
         <v>4</v>
       </c>
       <c r="I28" s="35">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="J28" s="35">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K28" s="35">
-        <v>960</v>
+        <v>1140</v>
       </c>
       <c r="L28" s="35">
         <v>3</v>
       </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="1"/>
@@ -4239,35 +4327,23 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="I29" s="35">
-        <v>17000</v>
+        <v>20</v>
       </c>
       <c r="J29" s="35">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K29" s="35">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="L29" s="35">
         <v>3</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="1"/>
@@ -4277,35 +4353,23 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="I30" s="35">
-        <v>18000</v>
+        <v>18</v>
       </c>
       <c r="J30" s="35">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K30" s="35">
-        <v>1080</v>
+        <v>900</v>
       </c>
       <c r="L30" s="35">
         <v>3</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="1"/>
@@ -4315,35 +4379,23 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="I31" s="35">
-        <v>19000</v>
+        <v>17</v>
       </c>
       <c r="J31" s="35">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K31" s="35">
-        <v>1140</v>
+        <v>850</v>
       </c>
       <c r="L31" s="35">
         <v>3</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="1"/>
@@ -4353,37 +4405,25 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="I32" s="35">
-        <v>20000</v>
+        <v>16</v>
       </c>
       <c r="J32" s="35">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K32" s="35">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L32" s="35">
         <v>3</v>
       </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-    </row>
-    <row r="33" spans="1:24">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4397,31 +4437,19 @@
         <v>182</v>
       </c>
       <c r="I33" s="35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J33" s="35">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K33" s="35">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="L33" s="35">
         <v>3</v>
       </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-    </row>
-    <row r="34" spans="1:24">
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4432,34 +4460,22 @@
         <v>5</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I34" s="35">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J34" s="35">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K34" s="35">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L34" s="35">
         <v>3</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-    </row>
-    <row r="35" spans="1:24">
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4470,34 +4486,22 @@
         <v>5</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I35" s="35">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J35" s="35">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K35" s="35">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L35" s="35">
         <v>3</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-    </row>
-    <row r="36" spans="1:24">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4511,31 +4515,19 @@
         <v>183</v>
       </c>
       <c r="I36" s="35">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J36" s="35">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K36" s="35">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L36" s="35">
         <v>3</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-    </row>
-    <row r="37" spans="1:24">
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4549,31 +4541,19 @@
         <v>183</v>
       </c>
       <c r="I37" s="35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J37" s="35">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K37" s="35">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L37" s="35">
         <v>3</v>
       </c>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-    </row>
-    <row r="38" spans="1:24">
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4587,31 +4567,19 @@
         <v>183</v>
       </c>
       <c r="I38" s="35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J38" s="35">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K38" s="35">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L38" s="35">
         <v>3</v>
       </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-    </row>
-    <row r="39" spans="1:24">
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4622,34 +4590,22 @@
         <v>5</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="I39" s="35">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J39" s="35">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K39" s="35">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="L39" s="35">
         <v>3</v>
       </c>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-    </row>
-    <row r="40" spans="1:24">
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4660,34 +4616,22 @@
         <v>5</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="I40" s="35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J40" s="35">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K40" s="35">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="L40" s="35">
         <v>3</v>
       </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-    </row>
-    <row r="41" spans="1:24">
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4698,34 +4642,22 @@
         <v>5</v>
       </c>
       <c r="H41" s="35" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="I41" s="35">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J41" s="35">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K41" s="35">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="L41" s="35">
         <v>3</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38"/>
-    </row>
-    <row r="42" spans="1:24">
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4736,34 +4668,22 @@
         <v>5</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="I42" s="35">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J42" s="35">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K42" s="35">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L42" s="35">
         <v>3</v>
       </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38"/>
-    </row>
-    <row r="43" spans="1:24">
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4774,108 +4694,36 @@
         <v>5</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="I43" s="35">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J43" s="35">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K43" s="35">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="L43" s="35">
         <v>3</v>
       </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-    </row>
-    <row r="44" spans="1:24">
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="35">
-        <v>5</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="I44" s="35">
-        <v>16</v>
-      </c>
-      <c r="J44" s="35">
-        <v>80</v>
-      </c>
-      <c r="K44" s="35">
-        <v>800</v>
-      </c>
-      <c r="L44" s="35">
-        <v>3</v>
-      </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-    </row>
-    <row r="45" spans="1:24">
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="35">
-        <v>5</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="I45" s="35">
-        <v>15</v>
-      </c>
-      <c r="J45" s="35">
-        <v>100</v>
-      </c>
-      <c r="K45" s="35">
-        <v>750</v>
-      </c>
-      <c r="L45" s="35">
-        <v>3</v>
-      </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4894,8 +4742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B9D40-B2F6-1B40-97C8-5B1ABDFADBF2}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -5041,18 +4889,18 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
     </row>
     <row r="7" spans="1:23">
       <c r="P7" s="10" t="s">
@@ -5069,26 +4917,26 @@
       <c r="Q8" s="10"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="5" t="s">
@@ -5635,18 +5483,18 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B37" s="27"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -5655,7 +5503,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -5671,7 +5519,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -5693,8 +5541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1143F6-A7C5-2A47-868E-77190750C444}">
   <dimension ref="A2:V139"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="137" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -6040,7 +5888,7 @@
         <v>190</v>
       </c>
       <c r="S24" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -6051,7 +5899,7 @@
         <v>290</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -6094,10 +5942,10 @@
         <v>590</v>
       </c>
       <c r="H28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s">
         <v>122</v>
@@ -6105,11 +5953,11 @@
       <c r="M28" t="s">
         <v>125</v>
       </c>
-      <c r="N28" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="O28" s="62"/>
-      <c r="P28" s="61"/>
+      <c r="N28" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" s="42"/>
+      <c r="P28" s="41"/>
       <c r="Q28" s="12" t="s">
         <v>87</v>
       </c>
@@ -6139,13 +5987,13 @@
         <v>123</v>
       </c>
       <c r="M29" t="s">
-        <v>259</v>
-      </c>
-      <c r="N29" s="62" t="s">
-        <v>258</v>
-      </c>
-      <c r="O29" s="62"/>
-      <c r="P29" s="61"/>
+        <v>256</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" s="42"/>
+      <c r="P29" s="41"/>
       <c r="Q29" s="12" t="s">
         <v>92</v>
       </c>
@@ -6164,10 +6012,10 @@
       <c r="B30">
         <v>790</v>
       </c>
-      <c r="H30" s="63">
+      <c r="H30" s="43">
         <v>2.5</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="43">
         <f t="shared" ref="I30:I36" si="2">(5-2.64-6.42)/(1.5-H30)</f>
         <v>4.0600000000000005</v>
       </c>
@@ -6197,7 +6045,7 @@
         <v>2.706666666666667</v>
       </c>
       <c r="L31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q31" s="12" t="s">
         <v>89</v>
@@ -6234,7 +6082,7 @@
         <v>1.6240000000000001</v>
       </c>
       <c r="L33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q33" s="25" t="s">
         <v>86</v>
@@ -6270,7 +6118,7 @@
         <v>1.1600000000000001</v>
       </c>
       <c r="L35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -6282,7 +6130,7 @@
         <v>1.0150000000000001</v>
       </c>
       <c r="L36" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -6324,13 +6172,13 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
+        <v>225</v>
+      </c>
+      <c r="M40" t="s">
         <v>226</v>
       </c>
-      <c r="M40" t="s">
-        <v>227</v>
-      </c>
       <c r="N40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -6341,16 +6189,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -6361,16 +6209,16 @@
         <v>0.08</v>
       </c>
       <c r="K42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M42" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="N42" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -6381,7 +6229,7 @@
         <v>0.09</v>
       </c>
       <c r="L43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -6392,13 +6240,13 @@
         <v>0.1</v>
       </c>
       <c r="L44" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M44" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N44" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -6409,7 +6257,7 @@
         <v>0.11</v>
       </c>
       <c r="L45" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -6439,7 +6287,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="N48" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -6465,16 +6313,16 @@
       <c r="B51" s="13">
         <v>0.17</v>
       </c>
-      <c r="D51" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
+      <c r="D51" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
       <c r="L51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -6488,22 +6336,22 @@
         <v>0.18</v>
       </c>
       <c r="D52" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" t="s">
         <v>230</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>231</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
+        <v>230</v>
+      </c>
+      <c r="H52" t="s">
         <v>232</v>
       </c>
-      <c r="G52" t="s">
-        <v>231</v>
-      </c>
-      <c r="H52" t="s">
-        <v>233</v>
-      </c>
       <c r="I52" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -6514,7 +6362,7 @@
         <v>0.19</v>
       </c>
       <c r="L53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N53" t="s">
         <v>130</v>
@@ -6685,7 +6533,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="L63" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -6720,7 +6568,7 @@
         <v>0.33</v>
       </c>
       <c r="L67" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -6739,7 +6587,7 @@
         <v>0.35</v>
       </c>
       <c r="L69" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -6750,7 +6598,7 @@
         <v>0.36</v>
       </c>
       <c r="L70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N70" t="s">
         <v>130</v>
@@ -6879,11 +6727,11 @@
       <c r="B81" s="13">
         <v>0.47</v>
       </c>
-      <c r="L81" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="M81" s="64"/>
-      <c r="N81" s="64"/>
+      <c r="L81" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82">
@@ -6892,13 +6740,13 @@
       <c r="B82" s="13">
         <v>0.48</v>
       </c>
-      <c r="L82" s="64" t="s">
+      <c r="L82" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="M82" s="64" t="s">
+      <c r="M82" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="N82" s="64" t="s">
+      <c r="N82" s="44" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6909,13 +6757,13 @@
       <c r="B83" s="13">
         <v>0.49</v>
       </c>
-      <c r="L83" s="64">
+      <c r="L83" s="44">
         <v>1</v>
       </c>
-      <c r="M83" s="64">
+      <c r="M83" s="44">
         <v>60</v>
       </c>
-      <c r="N83" s="64">
+      <c r="N83" s="44">
         <f>SUM($B$3:M83)</f>
         <v>67575.719000000012</v>
       </c>
@@ -6927,13 +6775,13 @@
       <c r="B84" s="13">
         <v>0.5</v>
       </c>
-      <c r="L84" s="64">
+      <c r="L84" s="44">
         <v>2</v>
       </c>
-      <c r="M84" s="64">
+      <c r="M84" s="44">
         <v>100</v>
       </c>
-      <c r="N84" s="64">
+      <c r="N84" s="44">
         <f>SUM($B$3:M84)</f>
         <v>67678.219000000012</v>
       </c>
@@ -6945,13 +6793,13 @@
       <c r="B85" s="13">
         <v>0.51</v>
       </c>
-      <c r="L85" s="64">
-        <v>3</v>
-      </c>
-      <c r="M85" s="64">
+      <c r="L85" s="44">
+        <v>3</v>
+      </c>
+      <c r="M85" s="44">
         <v>160</v>
       </c>
-      <c r="N85" s="64">
+      <c r="N85" s="44">
         <f>SUM($B$3:M85)</f>
         <v>67841.729000000007</v>
       </c>
@@ -6963,13 +6811,13 @@
       <c r="B86" s="13">
         <v>0.52</v>
       </c>
-      <c r="L86" s="64">
+      <c r="L86" s="44">
         <v>4</v>
       </c>
-      <c r="M86" s="64">
+      <c r="M86" s="44">
         <v>260</v>
       </c>
-      <c r="N86" s="64">
+      <c r="N86" s="44">
         <f>SUM($B$3:M86)</f>
         <v>68106.249000000011</v>
       </c>
@@ -6981,13 +6829,13 @@
       <c r="B87" s="13">
         <v>0.53</v>
       </c>
-      <c r="L87" s="64">
+      <c r="L87" s="44">
         <v>5</v>
       </c>
-      <c r="M87" s="64">
+      <c r="M87" s="44">
         <v>360</v>
       </c>
-      <c r="N87" s="64">
+      <c r="N87" s="44">
         <f>SUM($B$3:M87)</f>
         <v>68471.77900000001</v>
       </c>
@@ -6999,13 +6847,13 @@
       <c r="B88" s="13">
         <v>0.54</v>
       </c>
-      <c r="L88" s="64">
+      <c r="L88" s="44">
         <v>6</v>
       </c>
-      <c r="M88" s="64">
+      <c r="M88" s="44">
         <v>460</v>
       </c>
-      <c r="N88" s="64">
+      <c r="N88" s="44">
         <f>SUM($B$3:M88)</f>
         <v>68938.319000000003</v>
       </c>
@@ -7017,13 +6865,13 @@
       <c r="B89" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L89" s="64">
+      <c r="L89" s="44">
         <v>7</v>
       </c>
-      <c r="M89" s="64">
+      <c r="M89" s="44">
         <v>560</v>
       </c>
-      <c r="N89" s="64">
+      <c r="N89" s="44">
         <f>SUM($B$3:M89)</f>
         <v>69505.869000000006</v>
       </c>
@@ -7035,13 +6883,13 @@
       <c r="B90" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L90" s="64">
+      <c r="L90" s="44">
         <v>8</v>
       </c>
-      <c r="M90" s="64">
+      <c r="M90" s="44">
         <v>660</v>
       </c>
-      <c r="N90" s="64">
+      <c r="N90" s="44">
         <f>SUM($B$3:M90)</f>
         <v>70174.429000000004</v>
       </c>
@@ -7053,13 +6901,13 @@
       <c r="B91" s="13">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L91" s="64">
+      <c r="L91" s="44">
         <v>9</v>
       </c>
-      <c r="M91" s="64">
+      <c r="M91" s="44">
         <v>760</v>
       </c>
-      <c r="N91" s="64">
+      <c r="N91" s="44">
         <f>SUM($B$3:M91)</f>
         <v>70943.999000000011</v>
       </c>
@@ -7099,11 +6947,11 @@
       <c r="B95" s="13">
         <v>0.61</v>
       </c>
-      <c r="L95" s="64" t="s">
-        <v>268</v>
-      </c>
-      <c r="M95" s="64"/>
-      <c r="N95" s="64"/>
+      <c r="L95" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96">
@@ -7112,13 +6960,13 @@
       <c r="B96" s="13">
         <v>0.62</v>
       </c>
-      <c r="L96" s="64" t="s">
+      <c r="L96" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="M96" s="64" t="s">
+      <c r="M96" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="N96" s="64"/>
+      <c r="N96" s="44"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97">
@@ -7127,13 +6975,13 @@
       <c r="B97" s="13">
         <v>0.63</v>
       </c>
-      <c r="L97" s="64">
+      <c r="L97" s="44">
         <v>1</v>
       </c>
-      <c r="M97" s="64">
+      <c r="M97" s="44">
         <v>60</v>
       </c>
-      <c r="N97" s="64"/>
+      <c r="N97" s="44"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98">
@@ -7142,13 +6990,13 @@
       <c r="B98" s="13">
         <v>0.64</v>
       </c>
-      <c r="L98" s="64">
+      <c r="L98" s="44">
         <v>2</v>
       </c>
-      <c r="M98" s="64">
+      <c r="M98" s="44">
         <v>100</v>
       </c>
-      <c r="N98" s="64"/>
+      <c r="N98" s="44"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99">
@@ -7157,13 +7005,13 @@
       <c r="B99" s="13">
         <v>0.65</v>
       </c>
-      <c r="L99" s="64">
-        <v>3</v>
-      </c>
-      <c r="M99" s="64">
+      <c r="L99" s="44">
+        <v>3</v>
+      </c>
+      <c r="M99" s="44">
         <v>160</v>
       </c>
-      <c r="N99" s="64"/>
+      <c r="N99" s="44"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100">
@@ -7172,13 +7020,13 @@
       <c r="B100" s="13">
         <v>0.66</v>
       </c>
-      <c r="L100" s="64">
+      <c r="L100" s="44">
         <v>4</v>
       </c>
-      <c r="M100" s="64">
+      <c r="M100" s="44">
         <v>260</v>
       </c>
-      <c r="N100" s="64"/>
+      <c r="N100" s="44"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
@@ -7187,13 +7035,13 @@
       <c r="B101" s="13">
         <v>0.67</v>
       </c>
-      <c r="L101" s="64">
+      <c r="L101" s="44">
         <v>5</v>
       </c>
-      <c r="M101" s="64">
+      <c r="M101" s="44">
         <v>360</v>
       </c>
-      <c r="N101" s="64"/>
+      <c r="N101" s="44"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102">
@@ -7202,13 +7050,13 @@
       <c r="B102" s="13">
         <v>0.68</v>
       </c>
-      <c r="L102" s="64">
+      <c r="L102" s="44">
         <v>6</v>
       </c>
-      <c r="M102" s="64">
+      <c r="M102" s="44">
         <v>460</v>
       </c>
-      <c r="N102" s="64"/>
+      <c r="N102" s="44"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103">
@@ -7217,13 +7065,13 @@
       <c r="B103" s="13">
         <v>0.69</v>
       </c>
-      <c r="L103" s="64">
+      <c r="L103" s="44">
         <v>7</v>
       </c>
-      <c r="M103" s="64">
+      <c r="M103" s="44">
         <v>560</v>
       </c>
-      <c r="N103" s="64"/>
+      <c r="N103" s="44"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104">
@@ -7232,13 +7080,13 @@
       <c r="B104" s="13">
         <v>0.7</v>
       </c>
-      <c r="L104" s="64">
+      <c r="L104" s="44">
         <v>8</v>
       </c>
-      <c r="M104" s="64">
+      <c r="M104" s="44">
         <v>660</v>
       </c>
-      <c r="N104" s="64"/>
+      <c r="N104" s="44"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105">
@@ -7247,13 +7095,13 @@
       <c r="B105" s="13">
         <v>0.71</v>
       </c>
-      <c r="L105" s="64">
+      <c r="L105" s="44">
         <v>9</v>
       </c>
-      <c r="M105" s="64">
+      <c r="M105" s="44">
         <v>760</v>
       </c>
-      <c r="N105" s="64"/>
+      <c r="N105" s="44"/>
     </row>
     <row r="106" spans="1:14">
       <c r="A106">
@@ -7527,7 +7375,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -7537,7 +7385,7 @@
         <v>134</v>
       </c>
       <c r="M1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7545,7 +7393,7 @@
         <v>135</v>
       </c>
       <c r="M3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N3" t="s">
         <v>56</v>
@@ -7554,13 +7402,13 @@
     <row r="4" spans="1:16">
       <c r="A4" s="12"/>
       <c r="M4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7571,13 +7419,13 @@
         <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N5" t="s">
         <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7598,7 +7446,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="M9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7606,13 +7454,13 @@
         <v>136</v>
       </c>
       <c r="M10" t="s">
+        <v>212</v>
+      </c>
+      <c r="N10" t="s">
         <v>213</v>
       </c>
-      <c r="N10" t="s">
-        <v>214</v>
-      </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7623,13 +7471,13 @@
         <v>3</v>
       </c>
       <c r="M11" t="s">
+        <v>214</v>
+      </c>
+      <c r="N11" t="s">
         <v>215</v>
       </c>
-      <c r="N11" t="s">
-        <v>216</v>
-      </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7640,13 +7488,13 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -7778,11 +7626,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
@@ -7935,11 +7783,11 @@
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="60"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
@@ -8056,7 +7904,7 @@
         <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1">
         <v>50</v>
@@ -8070,7 +7918,7 @@
         <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -8084,7 +7932,7 @@
         <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -8098,7 +7946,7 @@
         <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -8112,7 +7960,7 @@
         <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -8126,7 +7974,7 @@
         <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -8140,7 +7988,7 @@
         <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -8154,7 +8002,7 @@
         <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -8168,7 +8016,7 @@
         <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -8182,7 +8030,7 @@
         <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -8196,7 +8044,7 @@
         <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -8210,7 +8058,7 @@
         <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12">
         <v>50</v>
@@ -8224,7 +8072,7 @@
         <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13">
         <v>50</v>
@@ -8238,7 +8086,7 @@
         <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14">
         <v>50</v>
@@ -8252,7 +8100,7 @@
         <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -8266,7 +8114,7 @@
         <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -8280,7 +8128,7 @@
         <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17">
         <v>50</v>
@@ -8294,7 +8142,7 @@
         <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18">
         <v>50</v>
@@ -8308,7 +8156,7 @@
         <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19">
         <v>50</v>
@@ -8322,7 +8170,7 @@
         <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20">
         <v>50</v>
@@ -8336,7 +8184,7 @@
         <v>176</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21">
         <v>50</v>
@@ -8350,7 +8198,7 @@
         <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22">
         <v>50</v>
@@ -8364,7 +8212,7 @@
         <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23">
         <v>50</v>
@@ -8378,7 +8226,7 @@
         <v>179</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D24">
         <v>50</v>
@@ -8392,7 +8240,7 @@
         <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25">
         <v>50</v>
@@ -8406,7 +8254,7 @@
         <v>181</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26">
         <v>50</v>
@@ -8417,10 +8265,10 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27">
         <v>50</v>
@@ -8431,10 +8279,10 @@
         <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28">
         <v>50</v>
@@ -8445,10 +8293,10 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D29">
         <v>50</v>
@@ -8459,10 +8307,10 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D30">
         <v>50</v>
@@ -8473,10 +8321,10 @@
         <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D31">
         <v>50</v>
@@ -8487,10 +8335,10 @@
         <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32">
         <v>50</v>
@@ -8501,10 +8349,10 @@
         <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33">
         <v>50</v>
@@ -8515,10 +8363,10 @@
         <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D34">
         <v>50</v>
@@ -8529,10 +8377,10 @@
         <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D35">
         <v>50</v>
@@ -8543,10 +8391,10 @@
         <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D36">
         <v>50</v>
@@ -8557,10 +8405,10 @@
         <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37">
         <v>50</v>
@@ -8571,10 +8419,10 @@
         <v>98</v>
       </c>
       <c r="B38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
         <v>199</v>
-      </c>
-      <c r="C38" t="s">
-        <v>200</v>
       </c>
       <c r="D38">
         <v>50</v>
@@ -8583,4 +8431,555 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB621BB5-0A00-C041-B6CC-66487B0974BA}">
+  <dimension ref="A1:S48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="G4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="O4" t="s">
+        <v>269</v>
+      </c>
+      <c r="P4" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>271</v>
+      </c>
+      <c r="R4" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="S4" s="60"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>274</v>
+      </c>
+      <c r="P20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" t="s">
+        <v>250</v>
+      </c>
+      <c r="H23" t="s">
+        <v>251</v>
+      </c>
+      <c r="O23" t="s">
+        <v>250</v>
+      </c>
+      <c r="P23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>275</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" t="s">
+        <v>168</v>
+      </c>
+      <c r="O33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>280</v>
+      </c>
+      <c r="O35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" t="s">
+        <v>282</v>
+      </c>
+      <c r="O36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" t="s">
+        <v>283</v>
+      </c>
+      <c r="O37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" t="s">
+        <v>284</v>
+      </c>
+      <c r="O38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39" t="s">
+        <v>285</v>
+      </c>
+      <c r="O39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" t="s">
+        <v>247</v>
+      </c>
+      <c r="O47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="G48" t="s">
+        <v>248</v>
+      </c>
+      <c r="O48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="R4:S4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/TurnoverCards/翻卡礼包数值规划.xlsx
+++ b/TurnoverCards/翻卡礼包数值规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/TurnoverCards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD996826-BF87-604A-A5B0-26ADB6C8D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5932C4CC-3933-664F-BD0A-3A45C502CF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2200" yWindow="-21100" windowWidth="38100" windowHeight="21100" activeTab="1" xr2:uid="{CEB89FA9-BF40-B240-9A33-BE725A503870}"/>
+    <workbookView xWindow="-2220" yWindow="-21100" windowWidth="20360" windowHeight="21100" firstSheet="6" activeTab="9" xr2:uid="{CEB89FA9-BF40-B240-9A33-BE725A503870}"/>
   </bookViews>
   <sheets>
     <sheet name="基础奖池" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="游戏定价" sheetId="5" r:id="rId5"/>
     <sheet name="其他" sheetId="8" r:id="rId6"/>
     <sheet name="奖励分配" sheetId="9" r:id="rId7"/>
+    <sheet name="数据-刷新分布" sheetId="10" r:id="rId8"/>
+    <sheet name="数据-每天传奇卡张数" sheetId="11" r:id="rId9"/>
+    <sheet name="数据-当日首次翻卡分布" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="300">
   <si>
     <t>奖励库</t>
   </si>
@@ -946,6 +949,36 @@
   </si>
   <si>
     <t>S8~S10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>today_reset_count</t>
+  </si>
+  <si>
+    <t>第一天</t>
+  </si>
+  <si>
+    <t>第2天</t>
+  </si>
+  <si>
+    <t>第3天</t>
+  </si>
+  <si>
+    <t>legen_cards_count</t>
+  </si>
+  <si>
+    <t>第二天</t>
+  </si>
+  <si>
+    <t>第三天</t>
+  </si>
+  <si>
+    <t>flip_count</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -1388,6 +1421,3586 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>第一天</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'数据-刷新分布'!$C$3:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>97364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1D3-234B-B8F6-C1B87FF93711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2077474815"/>
+        <c:axId val="2077489855"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2077474815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077489855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2077489855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2077474815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>第二天</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'数据-刷新分布'!$D$3:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>87130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9899-844A-9505-FDB5B70A8E8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2068310495"/>
+        <c:axId val="1652264815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2068310495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1652264815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1652264815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2068310495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>第三天</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'数据-刷新分布'!$E$3:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>84545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB50-B144-9E20-4FC0926AA7B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1648723087"/>
+        <c:axId val="1682940143"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1648723087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682940143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1682940143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1648723087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>首次翻卡分布</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'数据-当日首次翻卡分布'!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60425</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E33-F148-B568-235D60B7A213}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1644027183"/>
+        <c:axId val="1643167999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1644027183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1643167999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1643167999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1644027183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2220,6 +5833,160 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64B1C07-572A-E540-A953-2367BB264FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>234950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70663E30-C1A5-5F44-B3BA-2B4DE4D82549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0758FB88-E5C1-4549-A92F-C80C910E8E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F691BC6-C20B-F941-A25E-2C05DBA93675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="燕 欣" id="{E5C44EB3-16CF-F444-A02D-02D4D2D2286A}" userId="1f00b3a2f54a1b8f" providerId="Windows Live"/>
@@ -2540,7 +6307,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -4738,12 +8505,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85945511-5A25-8043-8E12-821F47FCD246}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>74042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>60425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>22411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>19417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344B9D40-B2F6-1B40-97C8-5B1ABDFADBF2}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A5" zoomScale="110" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -5541,8 +9412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1143F6-A7C5-2A47-868E-77190750C444}">
   <dimension ref="A2:V139"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -5717,6 +9588,9 @@
       <c r="C7">
         <f>SUM($B$3:B7)</f>
         <v>1650</v>
+      </c>
+      <c r="J7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -8982,4 +12856,755 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D9B5DC-5F8E-2640-950B-CADD07B95065}">
+  <dimension ref="B1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>143120</v>
+      </c>
+      <c r="D2">
+        <v>62284</v>
+      </c>
+      <c r="E2">
+        <v>51344</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>97364</v>
+      </c>
+      <c r="D3">
+        <v>87130</v>
+      </c>
+      <c r="E3">
+        <v>84545</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>17123</v>
+      </c>
+      <c r="D4">
+        <v>10249</v>
+      </c>
+      <c r="E4">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3364</v>
+      </c>
+      <c r="D5">
+        <v>1787</v>
+      </c>
+      <c r="E5">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1265</v>
+      </c>
+      <c r="D6">
+        <v>620</v>
+      </c>
+      <c r="E6">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>475</v>
+      </c>
+      <c r="D7">
+        <v>214</v>
+      </c>
+      <c r="E7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>179</v>
+      </c>
+      <c r="D8">
+        <v>107</v>
+      </c>
+      <c r="E8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>112</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
+        <v>98</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEFFB27-824E-5C40-B95C-6B0D85163EEF}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>224518</v>
+      </c>
+      <c r="C2">
+        <v>141989</v>
+      </c>
+      <c r="D2">
+        <v>129469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29">
+        <v>35480</v>
+      </c>
+      <c r="C3" s="29">
+        <v>19256</v>
+      </c>
+      <c r="D3" s="29">
+        <v>16121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2202</v>
+      </c>
+      <c r="C4" s="29">
+        <v>872</v>
+      </c>
+      <c r="D4" s="29">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29">
+        <v>606</v>
+      </c>
+      <c r="C5" s="29">
+        <v>198</v>
+      </c>
+      <c r="D5" s="29">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>173</v>
+      </c>
+      <c r="C6">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>